--- a/public/plantilla_importar_activos.xlsx
+++ b/public/plantilla_importar_activos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\almacengt\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GYJosMartinez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8777F949-8F09-4AF6-AE82-C04694C82304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935336C0-EFB3-49BD-9ADC-0CB29B87E279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E7B874D2-553A-4C08-A0F8-0EEE1A29FEDF}"/>
   </bookViews>
@@ -45,18 +45,6 @@
     <t>fecha_registra</t>
   </si>
   <si>
-    <t>Activo 1</t>
-  </si>
-  <si>
-    <t>activo 2</t>
-  </si>
-  <si>
-    <t>activo 3</t>
-  </si>
-  <si>
-    <t>activo 6</t>
-  </si>
-  <si>
     <t>3578.98</t>
   </si>
   <si>
@@ -69,16 +57,28 @@
     <t>4238.25</t>
   </si>
   <si>
-    <t>2022-08-01</t>
+    <t>Activo 7</t>
   </si>
   <si>
-    <t>2022-08-02</t>
+    <t>activo 8</t>
   </si>
   <si>
-    <t>2022-08-03</t>
+    <t>activo 9</t>
   </si>
   <si>
-    <t>2022-08-04</t>
+    <t>activo 10</t>
+  </si>
+  <si>
+    <t>2022-08-05</t>
+  </si>
+  <si>
+    <t>2022-08-06</t>
+  </si>
+  <si>
+    <t>2022-08-07</t>
+  </si>
+  <si>
+    <t>2022-08-08</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:F1035"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -678,16 +678,16 @@
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
-        <v>1111</v>
+        <v>5555</v>
       </c>
       <c r="C2" s="1">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>14</v>
@@ -696,16 +696,16 @@
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>2222</v>
+        <v>6666</v>
       </c>
       <c r="C3" s="1">
-        <v>456</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
@@ -714,16 +714,16 @@
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>3333</v>
+        <v>7777</v>
       </c>
       <c r="C4" s="1">
-        <v>789</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -732,16 +732,16 @@
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <v>4444</v>
+        <v>8888</v>
       </c>
       <c r="C5" s="1">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>17</v>
